--- a/xlsx/克里奥尔语_intext.xlsx
+++ b/xlsx/克里奥尔语_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
   <si>
     <t>克里奥尔语</t>
   </si>
@@ -29,19 +29,19 @@
     <t>en-Creole language</t>
   </si>
   <si>
-    <t>政策_政策_美國_克里奥尔语</t>
+    <t>政策_政策_美国_克里奥尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>自然語言</t>
+    <t>自然语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E6%AC%BD%E8%AA%9E</t>
   </si>
   <si>
-    <t>皮欽語</t>
+    <t>皮钦语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%8B%E6%B3%BE%E6%B5%9C%E8%8B%B1%E8%AF%AD</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%94%A8%E8%AA%9E</t>
   </si>
   <si>
-    <t>公用語</t>
+    <t>公用语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>夏威夷英語</t>
+    <t>夏威夷英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%AA%9E</t>
   </si>
   <si>
-    <t>口語</t>
+    <t>口语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>聖多美和普林西比</t>
+    <t>圣多美和普林西比</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Forro</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E8%82%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>皮特肯語</t>
+    <t>皮特肯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%BA%AA%E5%9C%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>大溪地語</t>
+    <t>大溪地语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%A6%8F%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>諾福克語</t>
+    <t>诺福克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%88%BE%E4%BA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>蓋爾亞支</t>
+    <t>盖尔亚支</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Polynesian_languages</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9C%96</t>
   </si>
   <si>
-    <t>瓦努阿圖</t>
+    <t>瓦努阿图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%96%AF%E6%8B%89%E9%A9%AC%E8%AF%AD</t>
@@ -335,9 +335,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
   </si>
   <si>
@@ -359,13 +356,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%9C%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>澳門土語</t>
+    <t>澳门土语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%A4%E8%AF%AD</t>
@@ -383,37 +380,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E5%BC%8F%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>新加坡式英語</t>
+    <t>新加坡式英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>馬來語</t>
+    <t>马来语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%93%A6%E5%8D%A1%E8%AB%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>查瓦卡諾語</t>
+    <t>查瓦卡诺语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B3%B6%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>南島語系</t>
+    <t>南岛语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%B1%E4%BA%BA%E8%AF%9D</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩南語</t>
+    <t>闽南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%96%E5%8A%A0%E7%A6%84%E8%AF%AD</t>
@@ -443,43 +440,40 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B1%B1%E9%96%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>中山閩語</t>
+    <t>中山闽语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%BD%E5%8D%97%E8%AF%AD</t>
   </si>
   <si>
-    <t>闽南语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E6%B5%B7%E7%B2%B5%E8%AA%9E</t>
   </si>
   <si>
-    <t>粵海粵語</t>
+    <t>粤海粤语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E6%BA%AA%E8%AA%9E</t>
   </si>
   <si>
-    <t>寒溪語</t>
+    <t>寒溪语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E9%9B%85%E8%AA%9E</t>
   </si>
   <si>
-    <t>泰雅語</t>
+    <t>泰雅语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%A1%E6%B4%B2%E5%9B%BD</t>
@@ -509,25 +503,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E9%9A%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>土隆語</t>
+    <t>土隆语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>泰語</t>
+    <t>泰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E9%A0%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>景頗語</t>
+    <t>景颇语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E6%95%A2%E9%82%A6</t>
@@ -539,25 +533,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E6%95%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>果敢語</t>
+    <t>果敢语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>西南官話</t>
+    <t>西南官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E8%AA%9E</t>
   </si>
   <si>
-    <t>緬語</t>
+    <t>缅语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A4%E8%AA%9E</t>
   </si>
   <si>
-    <t>佤語</t>
+    <t>佤语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -575,21 +569,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
   </si>
   <si>
-    <t>英语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD</t>
   </si>
   <si>
-    <t>汉语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%AF%AD</t>
   </si>
   <si>
-    <t>马来语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E8%8B%B1%E8%AF%AD</t>
   </si>
   <si>
@@ -605,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E6%8E%A5%E8%A7%B8</t>
   </si>
   <si>
-    <t>語言接觸</t>
+    <t>语言接触</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%9D%A5%E8%AF%AD</t>
@@ -629,9 +614,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E9%92%A6%E8%AF%AD</t>
   </si>
   <si>
-    <t>皮钦语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E7%B1%BB%E5%9E%8B%E5%AD%A6</t>
   </si>
   <si>
@@ -659,19 +641,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E8%AA%BF</t>
   </si>
   <si>
-    <t>聲調</t>
+    <t>声调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E5%8D%80</t>
   </si>
   <si>
-    <t>音區</t>
+    <t>音区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E7%AF%80</t>
   </si>
   <si>
-    <t>音節</t>
+    <t>音节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%AD%A5</t>
@@ -689,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E7%9A%84%E9%A1%9E%E5%9E%8B%E5%88%86%E9%A1%9E</t>
   </si>
   <si>
-    <t>語言的類型分類</t>
+    <t>语言的类型分类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E8%AF%AD</t>
@@ -731,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E5%BA%8F</t>
   </si>
   <si>
-    <t>語序</t>
+    <t>语序</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/argument_(linguistics)</t>
@@ -743,61 +725,61 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%B3%93%E5%8B%95%E8%AA%9E%E5%BA%8F</t>
   </si>
   <si>
-    <t>主賓動語序</t>
+    <t>主宾动语序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%8B%95%E8%B3%93%E8%AA%9E%E5%BA%8F</t>
   </si>
   <si>
-    <t>主動賓語序</t>
+    <t>主动宾语序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E4%B8%BB%E8%B3%93%E8%AA%9E%E5%BA%8F</t>
   </si>
   <si>
-    <t>動主賓語序</t>
+    <t>动主宾语序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E8%B3%93%E4%B8%BB%E8%AA%9E%E5%BA%8F</t>
   </si>
   <si>
-    <t>動賓主語序</t>
+    <t>动宾主语序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E4%B8%BB%E5%8B%95%E8%AA%9E%E5%BA%8F</t>
   </si>
   <si>
-    <t>賓主動語序</t>
+    <t>宾主动语序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%8B%95%E4%B8%BB%E8%AA%9E%E5%BA%8F</t>
   </si>
   <si>
-    <t>賓動主語序</t>
+    <t>宾动主语序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E8%A9%9E%E7%AC%AC%E4%BA%8C%E9%A0%86%E4%BD%8D</t>
   </si>
   <si>
-    <t>動詞第二順位</t>
+    <t>动词第二顺位</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E4%BF%AE%E9%A3%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>jp-修飾語</t>
+    <t>jp-修饰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%80%E8%AA%9E</t>
   </si>
   <si>
-    <t>狀語</t>
+    <t>状语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82-%E6%96%B9%E6%B3%95-%E5%9C%B0</t>
   </si>
   <si>
-    <t>時-方法-地</t>
+    <t>时-方法-地</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Morphology_(linguistics)</t>
@@ -809,61 +791,61 @@
     <t>https://ja.wikipedia.org/wiki/%E3%82%A2%E3%83%A9%E3%82%A4%E3%83%B3%E3%83%A1%E3%83%B3%E3%83%88_(%E8%A8%80%E8%AA%9E%E5%AD%A6)</t>
   </si>
   <si>
-    <t>jp-アラインメント (言語学)</t>
+    <t>jp-アラインメント (言语学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%B3%93%E6%A0%BC%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>主賓格語言</t>
+    <t>主宾格语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E9%80%9A%E6%A0%BC%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>作通格語言</t>
+    <t>作通格语言</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%B4%BB%E6%A0%BC%E8%A8%80%E8%AA%9E</t>
   </si>
   <si>
-    <t>jp-活格言語</t>
+    <t>jp-活格言语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%88%86%E6%B3%95%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>三分法語言</t>
+    <t>三分法语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E9%BB%9E%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>焦點系統</t>
+    <t>焦点系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B1%E9%A1%8C%E5%84%AA%E5%85%88%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>話題優先語言</t>
+    <t>话题优先语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E8%A9%9E</t>
   </si>
   <si>
-    <t>量詞</t>
+    <t>量词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E8%A9%9E</t>
   </si>
   <si>
-    <t>數詞</t>
+    <t>数词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E6%84%8F%E5%AD%B8</t>
   </si>
   <si>
-    <t>語意學</t>
+    <t>语意学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Verb_framing</t>
@@ -875,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會語言學</t>
+    <t>社会语言学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E8%AF%9D</t>
@@ -887,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E8%AA%9E</t>
   </si>
   <si>
-    <t>通用語</t>
+    <t>通用语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E8%AF%AD</t>
@@ -899,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -911,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A5%A7%E7%88%BE%E8%AA%9E</t>
@@ -2799,7 +2781,7 @@
         <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -2825,10 +2807,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2854,10 +2836,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2883,10 +2865,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2912,10 +2894,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2941,10 +2923,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2970,10 +2952,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -2999,10 +2981,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3028,10 +3010,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3057,10 +3039,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3086,10 +3068,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3115,10 +3097,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3144,10 +3126,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3173,10 +3155,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3202,10 +3184,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3231,10 +3213,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3260,10 +3242,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3289,10 +3271,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3318,10 +3300,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3347,10 +3329,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3376,10 +3358,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3405,10 +3387,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3434,10 +3416,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3463,10 +3445,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3492,10 +3474,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3521,10 +3503,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3550,10 +3532,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3579,10 +3561,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3608,10 +3590,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3637,10 +3619,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3666,10 +3648,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3695,10 +3677,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3724,10 +3706,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3753,10 +3735,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3782,10 +3764,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3811,10 +3793,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3840,10 +3822,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3869,10 +3851,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3898,10 +3880,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3927,10 +3909,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3956,10 +3938,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="G93" t="n">
         <v>12</v>
@@ -3985,10 +3967,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -4014,10 +3996,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4043,10 +4025,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4072,10 +4054,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4101,10 +4083,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4130,10 +4112,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4159,10 +4141,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4188,10 +4170,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4217,10 +4199,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -4246,10 +4228,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4275,10 +4257,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4304,10 +4286,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4333,10 +4315,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4362,10 +4344,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4391,10 +4373,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4420,10 +4402,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4449,10 +4431,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4478,10 +4460,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4507,10 +4489,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4536,10 +4518,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4565,10 +4547,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4594,10 +4576,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4623,10 +4605,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4652,10 +4634,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4681,10 +4663,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4710,10 +4692,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4739,10 +4721,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4768,10 +4750,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4797,10 +4779,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4826,10 +4808,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4855,10 +4837,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4884,10 +4866,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4913,10 +4895,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4942,10 +4924,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4971,10 +4953,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5000,10 +4982,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5029,10 +5011,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5058,10 +5040,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5087,10 +5069,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5116,10 +5098,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5145,10 +5127,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5174,10 +5156,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5203,10 +5185,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5232,10 +5214,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5261,10 +5243,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5290,10 +5272,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5319,10 +5301,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5348,10 +5330,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5377,10 +5359,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5406,10 +5388,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5435,10 +5417,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5464,10 +5446,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5493,10 +5475,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5522,10 +5504,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5551,10 +5533,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F148" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -5580,10 +5562,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -5609,10 +5591,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5638,10 +5620,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5667,10 +5649,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>6</v>
@@ -5696,10 +5678,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
